--- a/doc/DBテーブル_貴方は猫派？犬派？.xlsx
+++ b/doc/DBテーブル_貴方は猫派？犬派？.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2F17E-DE5B-4C97-BD68-0951001A0BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B321DDC-F5AA-4E1B-B5C1-6DCAE7425670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23EFA69B-20CE-4FF5-B232-9B4248EC9737}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＃</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>犬猫</t>
     <rPh sb="0" eb="2">
       <t>イヌネコ</t>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リアクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,46 +113,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>猫か犬か</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>犬</t>
-    <rPh sb="0" eb="1">
-      <t>イヌ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -175,13 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どこのルームの内容</t>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿（全体で1つ）</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -209,17 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタンプ1種類</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -259,13 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>する人のID</t>
     <rPh sb="2" eb="3">
       <t>ヒト</t>
@@ -276,6 +204,120 @@
     <t>された人のID</t>
     <rPh sb="3" eb="4">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー（ユーザー情報の利用）</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬猫選択</t>
+    <rPh sb="0" eb="2">
+      <t>イヌネコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID（メールアドレス）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類選択</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約条件も記載する（文字数など）</t>
+    <rPh sb="0" eb="4">
+      <t>セイヤクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクション（スタンプ1種類）＝お気に入りとして表示</t>
+    <rPh sb="12" eb="14">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示ID</t>
+    <rPh sb="0" eb="2">
+      <t>ケイジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,13 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,14 +407,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -375,16 +420,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,276 +755,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9970C2-E750-4FB2-844C-07E28C314F2F}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
       <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="I14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="J18" s="6"/>
+      <c r="N18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="G19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="H19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="N19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D24" s="10"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
